--- a/Organisation/Arbeitszeiten.xlsx
+++ b/Organisation/Arbeitszeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59d86b69f2d59811/Desktop/SaferFire-2.0/Organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E604B6-F250-48DE-BFD7-C738E3CDA572}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>06.12.2021</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>13.12.2021</t>
+  </si>
+  <si>
+    <t>Sprint Daily &amp; Websocket Technology</t>
+  </si>
+  <si>
+    <t>14.12.2021</t>
+  </si>
+  <si>
+    <t>Database Setup</t>
   </si>
 </sst>
 </file>
@@ -153,15 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -170,25 +185,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,16 +546,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,15 +1547,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1579,19 +1582,19 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1599,55 +1602,55 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2.5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1655,19 +1658,19 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1675,19 +1678,19 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1695,19 +1698,19 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1715,19 +1718,19 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1735,19 +1738,19 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1755,19 +1758,19 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1775,19 +1778,19 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1795,648 +1798,687 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f>SUM(B2:B26)</f>
-        <v>21.5</v>
-      </c>
-      <c r="C27" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="C27" s="3">
         <f>SUM(C2:C26)</f>
-        <v>20</v>
-      </c>
-      <c r="D27" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="D27" s="3">
         <f>SUM(D2:D26)</f>
-        <v>24.5</v>
-      </c>
-      <c r="E27" s="4">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3">
         <f>SUM(E2:E26)</f>
-        <v>23</v>
-      </c>
-      <c r="F27" s="12">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5">
         <f>B27+C27+D27+E27</f>
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisation/Arbeitszeiten.xlsx
+++ b/Organisation/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59d86b69f2d59811/Desktop/SaferFire-2.0/Organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E604B6-F250-48DE-BFD7-C738E3CDA572}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9463132E-10F0-42D8-81FE-D9EBDF5EA735}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Database Setup</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
+  </si>
+  <si>
+    <t>Flutter &amp; SQL &amp; Node.js</t>
   </si>
 </sst>
 </file>
@@ -189,10 +195,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,6 +232,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arbeitszeiten</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -546,13 +583,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.5</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29</c:v>
@@ -1548,14 +1585,14 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1594,7 +1631,7 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1614,7 +1651,7 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1632,7 +1669,7 @@
       <c r="E4" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1830,7 +1867,7 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1850,7 +1887,7 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1870,16 +1907,29 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1950,15 +2000,15 @@
       </c>
       <c r="B27" s="3">
         <f>SUM(B2:B26)</f>
-        <v>27.5</v>
+        <v>30.5</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C2:C26)</f>
-        <v>26.5</v>
+        <v>29.5</v>
       </c>
       <c r="D27" s="3">
         <f>SUM(D2:D26)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3">
         <f>SUM(E2:E26)</f>
@@ -1966,7 +2016,7 @@
       </c>
       <c r="F27" s="5">
         <f>B27+C27+D27+E27</f>
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">

--- a/Organisation/Arbeitszeiten.xlsx
+++ b/Organisation/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59d86b69f2d59811/Desktop/SaferFire-2.0/Organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9463132E-10F0-42D8-81FE-D9EBDF5EA735}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8833D69F-F4CE-4F78-941D-6BF791463291}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Flutter &amp; SQL &amp; Node.js</t>
+  </si>
+  <si>
+    <t>20.12.2021</t>
+  </si>
+  <si>
+    <t>Websocket &amp; Backend &amp; UI</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,16 +592,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,7 +1640,7 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1651,7 +1660,7 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1669,7 +1678,7 @@
       <c r="E4" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1932,11 +1941,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -2000,23 +2022,23 @@
       </c>
       <c r="B27" s="3">
         <f>SUM(B2:B26)</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C2:C26)</f>
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="D27" s="3">
         <f>SUM(D2:D26)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3">
         <f>SUM(E2:E26)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" s="5">
         <f>B27+C27+D27+E27</f>
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">

--- a/Organisation/Arbeitszeiten.xlsx
+++ b/Organisation/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59d86b69f2d59811/Desktop/SaferFire-2.0/Organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8833D69F-F4CE-4F78-941D-6BF791463291}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{813F4ECE-15C1-4D30-A28F-8D5697BDC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76122E68-EB3A-4BE7-B2C2-D60610967ABE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Websocket &amp; Backend &amp; UI</t>
+  </si>
+  <si>
+    <t>22.12.2021</t>
   </si>
 </sst>
 </file>
@@ -592,16 +595,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>31.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,7 +1597,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,11 +1964,24 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -2022,23 +2038,23 @@
       </c>
       <c r="B27" s="3">
         <f>SUM(B2:B26)</f>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C2:C26)</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="D27" s="3">
         <f>SUM(D2:D26)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="3">
         <f>SUM(E2:E26)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="5">
         <f>B27+C27+D27+E27</f>
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
